--- a/SchedulingData/dynamic14/pso/scheduling1_13.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>60.5</v>
+        <v>111.3</v>
       </c>
       <c r="E2" t="n">
-        <v>25.14</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.14</v>
+        <v>50.48</v>
       </c>
       <c r="E3" t="n">
-        <v>26.256</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.76</v>
+        <v>55.2</v>
       </c>
       <c r="E4" t="n">
-        <v>27.624</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.5</v>
+        <v>53.88</v>
       </c>
       <c r="E5" t="n">
-        <v>25.32</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68.5</v>
+        <v>111.3</v>
       </c>
       <c r="D6" t="n">
-        <v>132.36</v>
+        <v>162.52</v>
       </c>
       <c r="E6" t="n">
-        <v>22.064</v>
+        <v>22.508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>132.36</v>
+        <v>50.48</v>
       </c>
       <c r="D7" t="n">
-        <v>196.04</v>
+        <v>111.48</v>
       </c>
       <c r="E7" t="n">
-        <v>19.336</v>
+        <v>21.672</v>
       </c>
     </row>
     <row r="8">
@@ -580,93 +580,93 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30.76</v>
+        <v>53.88</v>
       </c>
       <c r="D8" t="n">
-        <v>116.46</v>
+        <v>130.88</v>
       </c>
       <c r="E8" t="n">
-        <v>23.124</v>
+        <v>23.192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="D9" t="n">
-        <v>61.6</v>
+        <v>133.74</v>
       </c>
       <c r="E9" t="n">
-        <v>25.52</v>
+        <v>21.936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>111.48</v>
       </c>
       <c r="D10" t="n">
-        <v>51.02</v>
+        <v>155.38</v>
       </c>
       <c r="E10" t="n">
-        <v>27.088</v>
+        <v>18.912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51.02</v>
+        <v>155.38</v>
       </c>
       <c r="D11" t="n">
-        <v>113.12</v>
+        <v>213.62</v>
       </c>
       <c r="E11" t="n">
-        <v>23.008</v>
+        <v>15.688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>113.12</v>
+        <v>162.52</v>
       </c>
       <c r="D12" t="n">
-        <v>174.64</v>
+        <v>222.42</v>
       </c>
       <c r="E12" t="n">
-        <v>18.976</v>
+        <v>19.128</v>
       </c>
     </row>
     <row r="13">
@@ -675,155 +675,155 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>196.04</v>
+        <v>133.74</v>
       </c>
       <c r="D13" t="n">
-        <v>254.74</v>
+        <v>182.42</v>
       </c>
       <c r="E13" t="n">
-        <v>16.576</v>
+        <v>18.688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>61.6</v>
+        <v>182.42</v>
       </c>
       <c r="D14" t="n">
-        <v>109.86</v>
+        <v>231.02</v>
       </c>
       <c r="E14" t="n">
-        <v>21.824</v>
+        <v>14.968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.14</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.04</v>
+        <v>46.76</v>
       </c>
       <c r="E15" t="n">
-        <v>22.296</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>174.64</v>
+        <v>222.42</v>
       </c>
       <c r="D16" t="n">
-        <v>228</v>
+        <v>278.32</v>
       </c>
       <c r="E16" t="n">
-        <v>15.76</v>
+        <v>15.168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115.04</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>171.56</v>
+        <v>60.5</v>
       </c>
       <c r="E17" t="n">
-        <v>18.264</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>254.74</v>
+        <v>278.32</v>
       </c>
       <c r="D18" t="n">
-        <v>308.28</v>
+        <v>344.02</v>
       </c>
       <c r="E18" t="n">
-        <v>13.352</v>
+        <v>12.208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>116.46</v>
+        <v>213.62</v>
       </c>
       <c r="D19" t="n">
-        <v>162.82</v>
+        <v>259.06</v>
       </c>
       <c r="E19" t="n">
-        <v>20.108</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>162.82</v>
+        <v>60.5</v>
       </c>
       <c r="D20" t="n">
-        <v>226.7</v>
+        <v>146.66</v>
       </c>
       <c r="E20" t="n">
-        <v>16.86</v>
+        <v>22.124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -831,222 +831,222 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>228</v>
+        <v>146.66</v>
       </c>
       <c r="D21" t="n">
-        <v>285.5</v>
+        <v>234.06</v>
       </c>
       <c r="E21" t="n">
-        <v>12.12</v>
+        <v>18.484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>171.56</v>
+        <v>259.06</v>
       </c>
       <c r="D22" t="n">
-        <v>236.46</v>
+        <v>313.48</v>
       </c>
       <c r="E22" t="n">
-        <v>14.884</v>
+        <v>8.472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>109.86</v>
+        <v>344.02</v>
       </c>
       <c r="D23" t="n">
-        <v>175.26</v>
+        <v>420.02</v>
       </c>
       <c r="E23" t="n">
-        <v>18.864</v>
+        <v>9.688000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>226.7</v>
+        <v>46.76</v>
       </c>
       <c r="D24" t="n">
-        <v>273.9</v>
+        <v>109.92</v>
       </c>
       <c r="E24" t="n">
-        <v>13.78</v>
+        <v>23.308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>60.5</v>
+        <v>231.02</v>
       </c>
       <c r="D25" t="n">
-        <v>117.66</v>
+        <v>277.62</v>
       </c>
       <c r="E25" t="n">
-        <v>22.544</v>
+        <v>12.928</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>308.28</v>
+        <v>313.48</v>
       </c>
       <c r="D26" t="n">
-        <v>358.56</v>
+        <v>371.2</v>
       </c>
       <c r="E26" t="n">
-        <v>9.964</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>273.9</v>
+        <v>109.92</v>
       </c>
       <c r="D27" t="n">
-        <v>314.34</v>
+        <v>173.36</v>
       </c>
       <c r="E27" t="n">
-        <v>10.876</v>
+        <v>19.564</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>117.66</v>
+        <v>277.62</v>
       </c>
       <c r="D28" t="n">
-        <v>188.52</v>
+        <v>344.24</v>
       </c>
       <c r="E28" t="n">
-        <v>19.068</v>
+        <v>8.896000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>175.26</v>
+        <v>173.36</v>
       </c>
       <c r="D29" t="n">
-        <v>243.66</v>
+        <v>231.16</v>
       </c>
       <c r="E29" t="n">
-        <v>15.144</v>
+        <v>15.404</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>285.5</v>
+        <v>234.06</v>
       </c>
       <c r="D30" t="n">
-        <v>337.6</v>
+        <v>272.72</v>
       </c>
       <c r="E30" t="n">
-        <v>8.039999999999999</v>
+        <v>15.748</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>337.6</v>
+        <v>130.88</v>
       </c>
       <c r="D31" t="n">
-        <v>400.94</v>
+        <v>189.52</v>
       </c>
       <c r="E31" t="n">
-        <v>4.816</v>
+        <v>19.968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>236.46</v>
+        <v>189.52</v>
       </c>
       <c r="D32" t="n">
-        <v>283.7</v>
+        <v>268.28</v>
       </c>
       <c r="E32" t="n">
-        <v>11.3</v>
+        <v>16.712</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>243.66</v>
+        <v>371.2</v>
       </c>
       <c r="D33" t="n">
-        <v>315.94</v>
+        <v>448.4</v>
       </c>
       <c r="E33" t="n">
-        <v>11.036</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>400.94</v>
+        <v>268.28</v>
       </c>
       <c r="D34" t="n">
-        <v>478.04</v>
+        <v>343.04</v>
       </c>
       <c r="E34" t="n">
-        <v>1.696</v>
+        <v>14.336</v>
       </c>
     </row>
     <row r="35">
@@ -1093,41 +1093,41 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>478.04</v>
+        <v>231.16</v>
       </c>
       <c r="D35" t="n">
-        <v>546.65</v>
+        <v>287.88</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>11.372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>358.56</v>
+        <v>287.88</v>
       </c>
       <c r="D36" t="n">
-        <v>406.28</v>
+        <v>365.98</v>
       </c>
       <c r="E36" t="n">
-        <v>7.312</v>
+        <v>6.692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1135,108 +1135,108 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>315.94</v>
+        <v>420.02</v>
       </c>
       <c r="D37" t="n">
-        <v>368.94</v>
+        <v>482.82</v>
       </c>
       <c r="E37" t="n">
-        <v>8.836</v>
+        <v>7.488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>368.94</v>
+        <v>344.24</v>
       </c>
       <c r="D38" t="n">
-        <v>445.46</v>
+        <v>404.12</v>
       </c>
       <c r="E38" t="n">
-        <v>4.804</v>
+        <v>5.508</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>188.52</v>
+        <v>343.04</v>
       </c>
       <c r="D39" t="n">
-        <v>256.32</v>
+        <v>405.22</v>
       </c>
       <c r="E39" t="n">
-        <v>14.908</v>
+        <v>10.228</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>256.32</v>
+        <v>448.4</v>
       </c>
       <c r="D40" t="n">
-        <v>316</v>
+        <v>515</v>
       </c>
       <c r="E40" t="n">
-        <v>11.06</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>314.34</v>
+        <v>515</v>
       </c>
       <c r="D41" t="n">
-        <v>382.68</v>
+        <v>572.54</v>
       </c>
       <c r="E41" t="n">
-        <v>7.132</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>382.68</v>
+        <v>272.72</v>
       </c>
       <c r="D42" t="n">
-        <v>423.28</v>
+        <v>334.62</v>
       </c>
       <c r="E42" t="n">
-        <v>3.712</v>
+        <v>12.668</v>
       </c>
     </row>
     <row r="43">
@@ -1245,193 +1245,193 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>406.28</v>
+        <v>404.12</v>
       </c>
       <c r="D43" t="n">
-        <v>480.6</v>
+        <v>444.54</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2.596</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>316</v>
+        <v>405.22</v>
       </c>
       <c r="D44" t="n">
-        <v>397.1</v>
+        <v>458.38</v>
       </c>
       <c r="E44" t="n">
-        <v>9.02</v>
+        <v>6.532</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>423.28</v>
+        <v>334.62</v>
       </c>
       <c r="D45" t="n">
-        <v>482.86</v>
+        <v>394.32</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>8.827999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>482.86</v>
+        <v>482.82</v>
       </c>
       <c r="D46" t="n">
-        <v>543.0599999999999</v>
+        <v>553.78</v>
       </c>
       <c r="E46" t="n">
-        <v>25.68</v>
+        <v>4.992</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>397.1</v>
+        <v>458.38</v>
       </c>
       <c r="D47" t="n">
-        <v>455.36</v>
+        <v>554.7</v>
       </c>
       <c r="E47" t="n">
-        <v>6.284</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>455.36</v>
+        <v>365.98</v>
       </c>
       <c r="D48" t="n">
-        <v>491.62</v>
+        <v>421.28</v>
       </c>
       <c r="E48" t="n">
-        <v>3.788</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>283.7</v>
+        <v>394.32</v>
       </c>
       <c r="D49" t="n">
-        <v>348.2</v>
+        <v>452.98</v>
       </c>
       <c r="E49" t="n">
-        <v>7.46</v>
+        <v>6.092</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>348.2</v>
+        <v>452.98</v>
       </c>
       <c r="D50" t="n">
-        <v>389.52</v>
+        <v>539.6799999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>4.468</v>
+        <v>2.012</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>445.46</v>
+        <v>553.78</v>
       </c>
       <c r="D51" t="n">
-        <v>504.22</v>
+        <v>601.14</v>
       </c>
       <c r="E51" t="n">
-        <v>2.068</v>
+        <v>2.396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>543.0599999999999</v>
+        <v>421.28</v>
       </c>
       <c r="D52" t="n">
-        <v>594.5599999999999</v>
+        <v>460.46</v>
       </c>
       <c r="E52" t="n">
-        <v>23.16</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1439,32 +1439,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504.22</v>
+        <v>460.46</v>
       </c>
       <c r="D53" t="n">
-        <v>596.58</v>
+        <v>535.39</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>pond15</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>596.58</v>
-      </c>
-      <c r="D54" t="n">
-        <v>636.36</v>
-      </c>
-      <c r="E54" t="n">
-        <v>27.712</v>
       </c>
     </row>
   </sheetData>
